--- a/data_year/zb/对外经济贸易/外商投资企业货物进出口总额.xlsx
+++ b/data_year/zb/对外经济贸易/外商投资企业货物进出口总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,273 +453,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119441.21</v>
+        <v>862228.8196909999</v>
       </c>
       <c r="C2" t="n">
-        <v>236713.9</v>
+        <v>1600615.243279</v>
       </c>
       <c r="D2" t="n">
-        <v>117272.69</v>
+        <v>738386.423588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>444200</v>
+        <v>995227.038013</v>
       </c>
       <c r="C3" t="n">
-        <v>831700</v>
+        <v>1859898.738684</v>
       </c>
       <c r="D3" t="n">
-        <v>387500</v>
+        <v>864671.7006710001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>563779.048</v>
+        <v>1022620.075</v>
       </c>
       <c r="C4" t="n">
-        <v>1036269.486</v>
+        <v>1894120.199</v>
       </c>
       <c r="D4" t="n">
-        <v>472490.438</v>
+        <v>871500.124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>695370.76909</v>
+        <v>1043724.098</v>
       </c>
       <c r="C5" t="n">
-        <v>1255163.806531</v>
+        <v>1918314.579</v>
       </c>
       <c r="D5" t="n">
-        <v>559793.037441</v>
+        <v>874590.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>790492.702789</v>
+        <v>1074619.924676</v>
       </c>
       <c r="C6" t="n">
-        <v>1409921.18768</v>
+        <v>1983557.680575</v>
       </c>
       <c r="D6" t="n">
-        <v>619428.4848910001</v>
+        <v>908937.7558990001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>672074.09</v>
+        <v>1004614.4128</v>
       </c>
       <c r="C7" t="n">
-        <v>1217478.36</v>
+        <v>1833480.6506</v>
       </c>
       <c r="D7" t="n">
-        <v>545404.27</v>
+        <v>828866.2378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>862228.8196909999</v>
+        <v>916766.9037189999</v>
       </c>
       <c r="C8" t="n">
-        <v>1600615.243279</v>
+        <v>1687536.525619</v>
       </c>
       <c r="D8" t="n">
-        <v>738386.423588</v>
+        <v>770769.6219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>995227.038013</v>
+        <v>977559.478043</v>
       </c>
       <c r="C9" t="n">
-        <v>1859898.738684</v>
+        <v>1839135.095727</v>
       </c>
       <c r="D9" t="n">
-        <v>864671.7006710001</v>
+        <v>861575.6176840001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1022620.075</v>
+        <v>1035844.153693</v>
       </c>
       <c r="C10" t="n">
-        <v>1894120.199</v>
+        <v>1967663.703343</v>
       </c>
       <c r="D10" t="n">
-        <v>871500.124</v>
+        <v>931819.5496499999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1043724.098</v>
+        <v>966009.566357</v>
       </c>
       <c r="C11" t="n">
-        <v>1918314.579</v>
+        <v>1823836.689138</v>
       </c>
       <c r="D11" t="n">
-        <v>874590.48</v>
+        <v>857827.122781</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1074619.924676</v>
+        <v>932082.045866</v>
       </c>
       <c r="C12" t="n">
-        <v>1983557.680575</v>
+        <v>1798964.193808</v>
       </c>
       <c r="D12" t="n">
-        <v>908937.7558990001</v>
+        <v>866882.147942</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004614.4128</v>
+        <v>1152762.31</v>
       </c>
       <c r="C13" t="n">
-        <v>1833480.6506</v>
+        <v>2170486.01</v>
       </c>
       <c r="D13" t="n">
-        <v>828866.2378</v>
+        <v>1017723.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>916766.9037189999</v>
+        <v>1123330.223849</v>
       </c>
       <c r="C14" t="n">
-        <v>1687536.525619</v>
+        <v>2076367.760936</v>
       </c>
       <c r="D14" t="n">
-        <v>770769.6219</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>977559.478043</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1839135.095727</v>
-      </c>
-      <c r="D15" t="n">
-        <v>861575.6176840001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1035844.153693</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1967663.703343</v>
-      </c>
-      <c r="D16" t="n">
-        <v>931819.5496499999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>966009.566357</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1823836.689138</v>
-      </c>
-      <c r="D17" t="n">
-        <v>857827.122781</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>932082.045866</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1798964.193808</v>
-      </c>
-      <c r="D18" t="n">
-        <v>866882.147942</v>
+        <v>953037.537087</v>
       </c>
     </row>
   </sheetData>
